--- a/09_BienesAmbientalesYServiciosPublicos/P0902/P0902.xlsx
+++ b/09_BienesAmbientalesYServiciosPublicos/P0902/P0902.xlsx
@@ -191,7 +191,7 @@
     <t>Dataset resultado de la minería, agregado por clave del Sistema Urbano Nacional, para utilizarse en la construcción de Indicadores</t>
   </si>
   <si>
-    <t>Numero de denuncias recibidas en materia ambiental, por municipio, de 1994 a 2014</t>
+    <t>Numero de arboles plantados, por municipio, de 1994 a 2014</t>
   </si>
   <si>
     <t>Revision de integridad de la información POR CLAVE DEL SUN. Promedio de VAR_INTEGRIDAD de los municipios que componen una ciudad. Si no se tiene información para el municipio, VAR_INTEGRIDAD es igual a cero</t>
@@ -212,10 +212,10 @@
     <t>http://sc.inegi.org.mx/cobdem/</t>
   </si>
   <si>
-    <t>"BS01.xlsx", disponible en https://github.com/INECC-PCCS/BS01</t>
-  </si>
-  <si>
-    <t>https://github.com/INECC-PCCS/P0902</t>
+    <t>"BS01.xlsx", disponible en https://github.com/INECC-PCCS/01_Dmine/tree/master/00_Parametros/BS01</t>
+  </si>
+  <si>
+    <t>https://github.com/INECC-PCCS/01_Dmine/tree/master/09_BienesAmbientalesYServiciosPublicos/P0902</t>
   </si>
   <si>
     <t>Sin Notas</t>
